--- a/ConsoleApplication1/ConsoleApplication1/Resultados/Resultados Ótimos.xlsx
+++ b/ConsoleApplication1/ConsoleApplication1/Resultados/Resultados Ótimos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="370">
   <si>
     <t>Instância</t>
   </si>
@@ -1049,6 +1049,78 @@
   </si>
   <si>
     <t>184.07216</t>
+  </si>
+  <si>
+    <t>R_8_1</t>
+  </si>
+  <si>
+    <t>379.20850</t>
+  </si>
+  <si>
+    <t>R_8_5</t>
+  </si>
+  <si>
+    <t>463.16008</t>
+  </si>
+  <si>
+    <t>R_8_10</t>
+  </si>
+  <si>
+    <t>437.02602</t>
+  </si>
+  <si>
+    <t>C_8_1</t>
+  </si>
+  <si>
+    <t>350.23640</t>
+  </si>
+  <si>
+    <t>C_8_5</t>
+  </si>
+  <si>
+    <t>507.13594</t>
+  </si>
+  <si>
+    <t>C_8_10</t>
+  </si>
+  <si>
+    <t>482.92554</t>
+  </si>
+  <si>
+    <t>RC_8_1</t>
+  </si>
+  <si>
+    <t>370.21862</t>
+  </si>
+  <si>
+    <t>RC_8_5</t>
+  </si>
+  <si>
+    <t>506.75083</t>
+  </si>
+  <si>
+    <t>RC_8_10</t>
+  </si>
+  <si>
+    <t>459.07577</t>
+  </si>
+  <si>
+    <t>RAD_8_1</t>
+  </si>
+  <si>
+    <t>404.23992</t>
+  </si>
+  <si>
+    <t>RAD_8_5</t>
+  </si>
+  <si>
+    <t>441.21308</t>
+  </si>
+  <si>
+    <t>RAD_8_10</t>
+  </si>
+  <si>
+    <t>444.08462</t>
   </si>
 </sst>
 </file>
@@ -4578,195 +4650,231 @@
       <c r="N173" s="3"/>
     </row>
     <row r="174">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
-      <c r="I174" s="2"/>
-      <c r="J174" s="2"/>
-      <c r="K174" s="2"/>
-      <c r="L174" s="2"/>
-      <c r="M174" s="2"/>
+      <c r="A174" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
       <c r="N174" s="3"/>
     </row>
     <row r="175">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
-      <c r="G175" s="2"/>
-      <c r="H175" s="2"/>
-      <c r="I175" s="2"/>
-      <c r="J175" s="2"/>
-      <c r="K175" s="2"/>
-      <c r="L175" s="2"/>
-      <c r="M175" s="2"/>
+      <c r="A175" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
       <c r="N175" s="3"/>
     </row>
     <row r="176">
-      <c r="A176" s="2"/>
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
-      <c r="F176" s="2"/>
-      <c r="G176" s="2"/>
-      <c r="H176" s="2"/>
-      <c r="I176" s="2"/>
-      <c r="J176" s="2"/>
-      <c r="K176" s="2"/>
-      <c r="L176" s="2"/>
-      <c r="M176" s="2"/>
+      <c r="A176" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
       <c r="N176" s="3"/>
     </row>
     <row r="177">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
-      <c r="G177" s="2"/>
-      <c r="H177" s="2"/>
-      <c r="I177" s="2"/>
-      <c r="J177" s="2"/>
-      <c r="K177" s="2"/>
-      <c r="L177" s="2"/>
-      <c r="M177" s="2"/>
+      <c r="A177" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
       <c r="N177" s="3"/>
     </row>
     <row r="178">
-      <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
-      <c r="G178" s="2"/>
-      <c r="H178" s="2"/>
-      <c r="I178" s="2"/>
-      <c r="J178" s="2"/>
-      <c r="K178" s="2"/>
-      <c r="L178" s="2"/>
-      <c r="M178" s="2"/>
+      <c r="A178" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
       <c r="N178" s="3"/>
     </row>
     <row r="179">
-      <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
-      <c r="G179" s="2"/>
-      <c r="H179" s="2"/>
-      <c r="I179" s="2"/>
-      <c r="J179" s="2"/>
-      <c r="K179" s="2"/>
-      <c r="L179" s="2"/>
-      <c r="M179" s="2"/>
+      <c r="A179" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
+      <c r="K179" s="1"/>
+      <c r="L179" s="1"/>
       <c r="N179" s="3"/>
     </row>
     <row r="180">
-      <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
-      <c r="G180" s="2"/>
-      <c r="H180" s="2"/>
-      <c r="I180" s="2"/>
-      <c r="J180" s="2"/>
-      <c r="K180" s="2"/>
-      <c r="L180" s="2"/>
-      <c r="M180" s="2"/>
+      <c r="A180" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
       <c r="N180" s="3"/>
     </row>
     <row r="181">
-      <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
-      <c r="G181" s="2"/>
-      <c r="H181" s="2"/>
-      <c r="I181" s="2"/>
-      <c r="J181" s="2"/>
-      <c r="K181" s="2"/>
-      <c r="L181" s="2"/>
-      <c r="M181" s="2"/>
+      <c r="A181" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="1"/>
       <c r="N181" s="3"/>
     </row>
     <row r="182">
-      <c r="A182" s="2"/>
-      <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
-      <c r="F182" s="2"/>
-      <c r="G182" s="2"/>
-      <c r="H182" s="2"/>
-      <c r="I182" s="2"/>
-      <c r="J182" s="2"/>
-      <c r="K182" s="2"/>
-      <c r="L182" s="2"/>
-      <c r="M182" s="2"/>
+      <c r="A182" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="1"/>
       <c r="N182" s="3"/>
     </row>
     <row r="183">
-      <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
-      <c r="F183" s="2"/>
-      <c r="G183" s="2"/>
-      <c r="H183" s="2"/>
-      <c r="I183" s="2"/>
-      <c r="J183" s="2"/>
-      <c r="K183" s="2"/>
-      <c r="L183" s="2"/>
-      <c r="M183" s="2"/>
+      <c r="A183" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
+      <c r="K183" s="1"/>
+      <c r="L183" s="1"/>
       <c r="N183" s="3"/>
     </row>
     <row r="184">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
-      <c r="E184" s="2"/>
-      <c r="F184" s="2"/>
-      <c r="G184" s="2"/>
-      <c r="H184" s="2"/>
-      <c r="I184" s="2"/>
-      <c r="J184" s="2"/>
-      <c r="K184" s="2"/>
-      <c r="L184" s="2"/>
-      <c r="M184" s="2"/>
+      <c r="A184" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+      <c r="L184" s="1"/>
       <c r="N184" s="3"/>
     </row>
     <row r="185">
-      <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
-      <c r="F185" s="2"/>
-      <c r="G185" s="2"/>
-      <c r="H185" s="2"/>
-      <c r="I185" s="2"/>
-      <c r="J185" s="2"/>
-      <c r="K185" s="2"/>
-      <c r="L185" s="2"/>
-      <c r="M185" s="2"/>
+      <c r="A185" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+      <c r="J185" s="1"/>
+      <c r="K185" s="1"/>
+      <c r="L185" s="1"/>
       <c r="N185" s="3"/>
     </row>
     <row r="186">
